--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CFR/cfr.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CFR/cfr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D8253-F775-4582-9B23-E3A4D55BEDDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D6DDC8-C079-4BA2-8BDF-C96C47C69506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFR Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -2394,7 +2394,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="575">
   <si>
     <t>Date</t>
   </si>
@@ -2636,18 +2636,6 @@
     <t>S&amp;P Credit Rating</t>
   </si>
   <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -2681,9 +2669,6 @@
     <t>BL2831677</t>
   </si>
   <si>
-    <t>CCC+</t>
-  </si>
-  <si>
     <t>BL2830489</t>
   </si>
   <si>
@@ -2726,18 +2711,6 @@
     <t>BL2842534</t>
   </si>
   <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>BB+</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
     <t>Since Inception*</t>
   </si>
   <si>
@@ -2855,9 +2828,6 @@
     <t>R-Squared</t>
   </si>
   <si>
-    <t>No longer allowed to use per CIFC/S&amp;P Ratings</t>
-  </si>
-  <si>
     <t>Avaya Holdings Corporation</t>
   </si>
   <si>
@@ -4089,13 +4059,73 @@
   </si>
   <si>
     <t>Falling</t>
+  </si>
+  <si>
+    <t>Exposure Select</t>
+  </si>
+  <si>
+    <t>PortfolioName</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Catalyst Floating Rate Income Fund</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>Wr</t>
+  </si>
+  <si>
+    <t>Total without cash</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Scaled to 100%</t>
+  </si>
+  <si>
+    <t>Scaled to 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -4105,9 +4135,8 @@
     <numFmt numFmtId="169" formatCode="0.0000%"/>
     <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4338,17 +4367,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Geogrotesque Rg"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4397,14 +4420,8 @@
         <bgColor indexed="0"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4632,21 +4649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD3D3D3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD3D3D3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD3D3D3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD3D3D3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4662,7 +4664,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -4953,7 +4955,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4963,29 +4964,11 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="34" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4999,6 +4982,29 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5041,22 +5047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19999,19 +19990,19 @@
   <cols>
     <col min="1" max="1" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="102" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="61" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="102" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="6"/>
     <col min="7" max="7" width="19" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="6" customWidth="1"/>
-    <col min="9" max="11" width="12.42578125" style="109" customWidth="1"/>
-    <col min="12" max="12" width="13" style="109" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.42578125" style="102" customWidth="1"/>
+    <col min="12" max="12" width="13" style="102" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" style="6" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" style="102" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -20037,11 +20028,11 @@
       <c r="H1" s="3">
         <v>44286</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="115"/>
-      <c r="P1" s="116"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="7">
@@ -20058,18 +20049,18 @@
       <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="97">
+      <c r="H2" s="96">
         <v>1.7699999999999999E-4</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="N2" s="117" t="s">
+      <c r="I2" s="110"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="N2" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="118"/>
-      <c r="P2" s="119"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="121"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="7">
@@ -20105,11 +20096,11 @@
         <v>14</v>
       </c>
       <c r="K3" s="12"/>
-      <c r="N3" s="120" t="s">
+      <c r="N3" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="121"/>
-      <c r="P3" s="122"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="124"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="7">
@@ -20131,11 +20122,11 @@
         <f>'[3]LSTA DATA'!C7</f>
         <v>9.0358724134809165E-4</v>
       </c>
-      <c r="N4" s="123" t="s">
+      <c r="N4" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="124"/>
-      <c r="P4" s="125"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="127"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="7">
@@ -20246,7 +20237,7 @@
         <v>-8.6806230931250061E-3</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H8" s="50">
         <f>RSQ(C3:C101,E3:E101)</f>
@@ -20746,8 +20737,8 @@
       <c r="L18" s="92">
         <v>4.36E-2</v>
       </c>
-      <c r="N18" s="132"/>
-      <c r="O18" s="133"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="113"/>
       <c r="P18" s="37" t="str">
         <f>P10</f>
         <v>CFRIX</v>
@@ -20795,10 +20786,10 @@
       <c r="L19" s="92">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="N19" s="128" t="s">
+      <c r="N19" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="O19" s="129"/>
+      <c r="O19" s="115"/>
       <c r="P19" s="8">
         <f>($P$16-P11)/P11</f>
         <v>0.17432253800396563</v>
@@ -20846,11 +20837,11 @@
       <c r="L20" s="92">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="N20" s="128" t="str">
+      <c r="N20" s="114" t="str">
         <f>N12</f>
         <v>2YR</v>
       </c>
-      <c r="O20" s="129"/>
+      <c r="O20" s="115"/>
       <c r="P20" s="8">
         <f>P16/P12-1</f>
         <v>0.10151890886546799</v>
@@ -20898,10 +20889,10 @@
       <c r="L21" s="92">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="N21" s="128" t="s">
+      <c r="N21" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="129"/>
+      <c r="O21" s="115"/>
       <c r="P21" s="8">
         <f>(1+P20)^(12/24)-1</f>
         <v>4.9532709764430249E-2</v>
@@ -20955,11 +20946,11 @@
         <f>Q27</f>
         <v>3.7031710977210031E-2</v>
       </c>
-      <c r="N22" s="128" t="str">
+      <c r="N22" s="114" t="str">
         <f>N13</f>
         <v>3YR</v>
       </c>
-      <c r="O22" s="129"/>
+      <c r="O22" s="115"/>
       <c r="P22" s="8">
         <f>P16/P13-1</f>
         <v>0.13349282296650711</v>
@@ -20990,10 +20981,10 @@
         <v>-9.6463876509239599E-3</v>
       </c>
       <c r="L23" s="6"/>
-      <c r="N23" s="128" t="s">
+      <c r="N23" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="O23" s="129"/>
+      <c r="O23" s="115"/>
       <c r="P23" s="8">
         <f>(1+P22)^(12/36)-1</f>
         <v>4.265250636071527E-2</v>
@@ -21033,11 +21024,11 @@
         <v>55</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="N24" s="128" t="str">
+      <c r="N24" s="114" t="str">
         <f>N14</f>
         <v>5YR</v>
       </c>
-      <c r="O24" s="129"/>
+      <c r="O24" s="115"/>
       <c r="P24" s="8">
         <f>P16/P14-1</f>
         <v>0.38862837045720977</v>
@@ -21070,17 +21061,17 @@
       <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H25" s="99">
         <v>3.1E-2</v>
       </c>
-      <c r="I25" s="101">
+      <c r="I25" s="99">
         <v>2.7300000000000001E-2</v>
       </c>
       <c r="L25" s="6"/>
-      <c r="N25" s="128" t="s">
+      <c r="N25" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="129"/>
+      <c r="O25" s="115"/>
       <c r="P25" s="8">
         <f>(1+P24)^(1/5)-1</f>
         <v>6.7867100671423319E-2</v>
@@ -21113,17 +21104,17 @@
       <c r="G26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H26" s="99">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="I26" s="101">
+      <c r="I26" s="99">
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="L26" s="6"/>
-      <c r="N26" s="128" t="s">
+      <c r="N26" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="129"/>
+      <c r="O26" s="115"/>
       <c r="P26" s="8">
         <f>($P$16-P15)/P15</f>
         <v>0.4214</v>
@@ -21156,19 +21147,19 @@
       <c r="G27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="101">
+      <c r="H27" s="99">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="I27" s="101">
+      <c r="I27" s="99">
         <v>1.7299999999999999E-2</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="25"/>
-      <c r="N27" s="126" t="s">
+      <c r="N27" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="O27" s="127"/>
+      <c r="O27" s="129"/>
       <c r="P27" s="38">
         <f>POWER(P16/P15,12/H3)-1</f>
         <v>4.3544727170429454E-2</v>
@@ -21248,13 +21239,13 @@
       </c>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="I30" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="J30" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -21280,15 +21271,15 @@
         <v>5.3054577927191815E-4</v>
       </c>
       <c r="G31" t="s">
-        <v>562</v>
-      </c>
-      <c r="H31" s="102">
+        <v>552</v>
+      </c>
+      <c r="H31" s="100">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="I31" s="102">
+      <c r="I31" s="100">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="J31" s="102">
+      <c r="J31" s="100">
         <v>-1.17E-2</v>
       </c>
       <c r="K31" s="52"/>
@@ -21315,15 +21306,15 @@
         <v>-8.6312352011592708E-3</v>
       </c>
       <c r="G32" t="s">
-        <v>563</v>
-      </c>
-      <c r="H32" s="102">
+        <v>553</v>
+      </c>
+      <c r="H32" s="100">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="I32" s="102">
+      <c r="I32" s="100">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="J32" s="102">
+      <c r="J32" s="100">
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="K32" s="22"/>
@@ -21350,15 +21341,15 @@
         <v>-3.5694047991018385E-3</v>
       </c>
       <c r="G33" t="s">
-        <v>564</v>
-      </c>
-      <c r="H33" s="102">
+        <v>554</v>
+      </c>
+      <c r="H33" s="100">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="I33" s="102">
+      <c r="I33" s="100">
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="J33" s="102">
+      <c r="J33" s="100">
         <v>0.1011</v>
       </c>
       <c r="K33" s="22"/>
@@ -23394,41 +23385,36 @@
     </row>
     <row r="122" spans="2:12" s="6" customFormat="1">
       <c r="B122" s="57"/>
-      <c r="C122" s="109"/>
+      <c r="C122" s="102"/>
       <c r="D122" s="61"/>
-      <c r="E122" s="109"/>
-      <c r="I122" s="109"/>
-      <c r="J122" s="109"/>
-      <c r="K122" s="109"/>
-      <c r="L122" s="109"/>
+      <c r="E122" s="102"/>
+      <c r="I122" s="102"/>
+      <c r="J122" s="102"/>
+      <c r="K122" s="102"/>
+      <c r="L122" s="102"/>
     </row>
     <row r="123" spans="2:12" s="6" customFormat="1">
       <c r="B123" s="57"/>
-      <c r="C123" s="109"/>
+      <c r="C123" s="102"/>
       <c r="D123" s="61"/>
-      <c r="E123" s="109"/>
-      <c r="I123" s="109"/>
-      <c r="J123" s="109"/>
-      <c r="K123" s="109"/>
-      <c r="L123" s="109"/>
+      <c r="E123" s="102"/>
+      <c r="I123" s="102"/>
+      <c r="J123" s="102"/>
+      <c r="K123" s="102"/>
+      <c r="L123" s="102"/>
     </row>
     <row r="124" spans="2:12" s="6" customFormat="1">
       <c r="B124" s="57"/>
-      <c r="C124" s="109"/>
+      <c r="C124" s="102"/>
       <c r="D124" s="61"/>
-      <c r="E124" s="109"/>
-      <c r="I124" s="109"/>
-      <c r="J124" s="109"/>
-      <c r="K124" s="109"/>
-      <c r="L124" s="109"/>
+      <c r="E124" s="102"/>
+      <c r="I124" s="102"/>
+      <c r="J124" s="102"/>
+      <c r="K124" s="102"/>
+      <c r="L124" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
@@ -23439,6 +23425,11 @@
     <mergeCell ref="N20:O20"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -23451,183 +23442,255 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <f>'CFR Portfolio'!C18</f>
-        <v>0</v>
-      </c>
-      <c r="B2" s="96">
-        <f>'CFR Portfolio'!D18*100</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
+        <v>574</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="str">
+        <f>'CFR Portfolio'!D21</f>
+        <v>Null</v>
+      </c>
+      <c r="B2" s="109">
+        <f>'CFR Portfolio'!E21</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="C2" s="109">
+        <f>'CFR Portfolio'!F21</f>
+        <v>8.9759281925744592E-3</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="str">
-        <f>'CFR Portfolio'!C19</f>
-        <v>BBB-</v>
-      </c>
-      <c r="B3" s="96">
-        <f>'CFR Portfolio'!D19*100</f>
-        <v>0.71000000000000008</v>
-      </c>
-      <c r="C3">
+        <f>'CFR Portfolio'!D22</f>
+        <v>B1</v>
+      </c>
+      <c r="B3" s="109">
+        <f>'CFR Portfolio'!E22</f>
+        <v>0.1052</v>
+      </c>
+      <c r="C3" s="109">
+        <f>'CFR Portfolio'!F22</f>
+        <v>0.10730314157486739</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="str">
-        <f>'CFR Portfolio'!C20</f>
-        <v>BB+</v>
-      </c>
-      <c r="B4" s="96">
-        <f>'CFR Portfolio'!D20*100</f>
-        <v>0.25</v>
-      </c>
-      <c r="C4">
+        <f>'CFR Portfolio'!D23</f>
+        <v>B2</v>
+      </c>
+      <c r="B4" s="109">
+        <f>'CFR Portfolio'!E23</f>
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="C4" s="109">
+        <f>'CFR Portfolio'!F23</f>
+        <v>0.41727866177070583</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="str">
-        <f>'CFR Portfolio'!C21</f>
-        <v>BB</v>
-      </c>
-      <c r="B5" s="96">
-        <f>'CFR Portfolio'!D21*100</f>
-        <v>1.66</v>
-      </c>
-      <c r="C5">
+        <f>'CFR Portfolio'!D24</f>
+        <v>B3</v>
+      </c>
+      <c r="B5" s="109">
+        <f>'CFR Portfolio'!E24</f>
+        <v>0.33689999999999998</v>
+      </c>
+      <c r="C5" s="109">
+        <f>'CFR Portfolio'!F24</f>
+        <v>0.34363525091799263</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="str">
-        <f>'CFR Portfolio'!C22</f>
-        <v>BB-</v>
-      </c>
-      <c r="B6" s="96">
-        <f>'CFR Portfolio'!D22*100</f>
-        <v>8.52</v>
-      </c>
-      <c r="C6">
+        <f>'CFR Portfolio'!D25</f>
+        <v>Ba1</v>
+      </c>
+      <c r="B6" s="109">
+        <f>'CFR Portfolio'!E25</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C6" s="109">
+        <f>'CFR Portfolio'!F25</f>
+        <v>2.039983680130559E-4</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="str">
-        <f>'CFR Portfolio'!C23</f>
-        <v>B+</v>
-      </c>
-      <c r="B7" s="96">
-        <f>'CFR Portfolio'!D23*100</f>
-        <v>11.73</v>
-      </c>
-      <c r="C7">
+        <f>'CFR Portfolio'!D26</f>
+        <v>Ba2</v>
+      </c>
+      <c r="B7" s="109">
+        <f>'CFR Portfolio'!E26</f>
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="C7" s="109">
+        <f>'CFR Portfolio'!F26</f>
+        <v>1.38718890248878E-2</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="str">
-        <f>'CFR Portfolio'!C24</f>
-        <v>B</v>
-      </c>
-      <c r="B8" s="96">
-        <f>'CFR Portfolio'!D24*100</f>
-        <v>43.88</v>
-      </c>
-      <c r="C8">
+        <f>'CFR Portfolio'!D27</f>
+        <v>Ba3</v>
+      </c>
+      <c r="B8" s="109">
+        <f>'CFR Portfolio'!E27</f>
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="C8" s="109">
+        <f>'CFR Portfolio'!F27</f>
+        <v>4.3961648306813546E-2</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="str">
-        <f>'CFR Portfolio'!C25</f>
-        <v>B-</v>
-      </c>
-      <c r="B9" s="96">
-        <f>'CFR Portfolio'!D25*100</f>
-        <v>24.19</v>
-      </c>
-      <c r="C9">
+        <f>'CFR Portfolio'!D28</f>
+        <v>Baa1</v>
+      </c>
+      <c r="B9" s="109">
+        <f>'CFR Portfolio'!E28</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C9" s="109">
+        <f>'CFR Portfolio'!F28</f>
+        <v>3.6719706242350058E-3</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="str">
-        <f>'CFR Portfolio'!C26</f>
-        <v>CCC+</v>
-      </c>
-      <c r="B10" s="96">
-        <f>'CFR Portfolio'!D26*100</f>
-        <v>3.29</v>
-      </c>
-      <c r="C10">
+        <f>'CFR Portfolio'!D29</f>
+        <v>Baa3</v>
+      </c>
+      <c r="B10" s="109">
+        <f>'CFR Portfolio'!E29</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C10" s="109">
+        <f>'CFR Portfolio'!F29</f>
+        <v>9.1799265605875145E-4</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="str">
-        <f>'CFR Portfolio'!C27</f>
-        <v>CCC</v>
-      </c>
-      <c r="B11" s="96">
-        <f>'CFR Portfolio'!D27*100</f>
-        <v>1.29</v>
-      </c>
-      <c r="C11">
+        <f>'CFR Portfolio'!D30</f>
+        <v>Caa1</v>
+      </c>
+      <c r="B11" s="109">
+        <f>'CFR Portfolio'!E30</f>
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="C11" s="109">
+        <f>'CFR Portfolio'!F30</f>
+        <v>3.1823745410036713E-2</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="str">
-        <f>'CFR Portfolio'!C28</f>
+        <f>'CFR Portfolio'!D31</f>
+        <v>Caa2</v>
+      </c>
+      <c r="B12" s="109">
+        <f>'CFR Portfolio'!E31</f>
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="C12" s="109">
+        <f>'CFR Portfolio'!F31</f>
+        <v>3.1619747042023662E-3</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="str">
+        <f>'CFR Portfolio'!D32</f>
         <v>NR</v>
       </c>
-      <c r="B12" s="96">
-        <f>'CFR Portfolio'!D28*100</f>
-        <v>2.2399999999999998</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="96"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="96"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="96"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="96"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="96"/>
+      <c r="B13" s="109">
+        <f>'CFR Portfolio'!E32</f>
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="C13" s="109">
+        <f>'CFR Portfolio'!F32</f>
+        <v>2.0909832721338228E-2</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="str">
+        <f>'CFR Portfolio'!D33</f>
+        <v>Wr</v>
+      </c>
+      <c r="B14" s="109">
+        <f>'CFR Portfolio'!E33</f>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="C14" s="109">
+        <f>'CFR Portfolio'!F33</f>
+        <v>4.2839657282741734E-3</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23647,16 +23710,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -23721,19 +23784,21 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="3" style="100" customWidth="1"/>
+    <col min="2" max="2" width="3" style="107" customWidth="1"/>
     <col min="3" max="3" width="39" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="8"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6">
@@ -23744,7 +23809,7 @@
     </row>
     <row r="4" spans="3:6">
       <c r="C4" s="32" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D4" s="86">
         <v>1.4195365745327353E-2</v>
@@ -23752,7 +23817,7 @@
     </row>
     <row r="5" spans="3:6">
       <c r="C5" s="32" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D5" s="86">
         <v>1.3506116955476336E-2</v>
@@ -23760,7 +23825,7 @@
     </row>
     <row r="6" spans="3:6">
       <c r="C6" s="32" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D6" s="86">
         <v>1.2182394989377473E-2</v>
@@ -23768,7 +23833,7 @@
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="32" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D7" s="86">
         <v>1.1592350570904915E-2</v>
@@ -23776,7 +23841,7 @@
     </row>
     <row r="8" spans="3:6">
       <c r="C8" s="32" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D8" s="86">
         <v>1.1514117029170892E-2</v>
@@ -23792,7 +23857,7 @@
       <c r="C11" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="110">
+      <c r="D11" s="103">
         <v>99.57</v>
       </c>
       <c r="E11" s="87" t="s">
@@ -23804,7 +23869,7 @@
       <c r="C12" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="104">
         <v>0.34399999999999997</v>
       </c>
       <c r="E12" s="87" t="s">
@@ -23831,7 +23896,7 @@
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="32" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D15" s="88">
         <f>'[3]CFR Fact Sheet Backup'!H8</f>
@@ -23839,149 +23904,266 @@
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="F17" s="87" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C18"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="87"/>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C19" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="104">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="E19" s="105" t="s">
+      <c r="D17" s="98"/>
+      <c r="F17" s="87"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="130" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C20" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="104">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="E20" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C21" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="104">
-        <v>1.66E-2</v>
-      </c>
-      <c r="E21" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C22" s="103" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>556</v>
+      </c>
+      <c r="D20" t="s">
+        <v>557</v>
+      </c>
+      <c r="E20" s="93">
+        <v>44286</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" t="s">
+        <v>558</v>
+      </c>
+      <c r="D21" t="s">
+        <v>559</v>
+      </c>
+      <c r="E21" s="100">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="F21" s="100">
+        <f>E21/$E$35</f>
+        <v>8.9759281925744592E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" t="s">
+        <v>558</v>
+      </c>
+      <c r="D22" t="s">
+        <v>560</v>
+      </c>
+      <c r="E22" s="100">
+        <v>0.1052</v>
+      </c>
+      <c r="F22" s="100">
+        <f t="shared" ref="F22:F33" si="0">E22/$E$35</f>
+        <v>0.10730314157486739</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" t="s">
+        <v>558</v>
+      </c>
+      <c r="D23" t="s">
+        <v>561</v>
+      </c>
+      <c r="E23" s="100">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="F23" s="100">
+        <f t="shared" si="0"/>
+        <v>0.41727866177070583</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" t="s">
+        <v>558</v>
+      </c>
+      <c r="D24" t="s">
+        <v>562</v>
+      </c>
+      <c r="E24" s="100">
+        <v>0.33689999999999998</v>
+      </c>
+      <c r="F24" s="100">
+        <f t="shared" si="0"/>
+        <v>0.34363525091799263</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" t="s">
+        <v>558</v>
+      </c>
+      <c r="D25" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" s="100">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F25" s="100">
+        <f t="shared" si="0"/>
+        <v>2.039983680130559E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" t="s">
+        <v>564</v>
+      </c>
+      <c r="E26" s="100">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="F26" s="100">
+        <f t="shared" si="0"/>
+        <v>1.38718890248878E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" t="s">
+        <v>558</v>
+      </c>
+      <c r="D27" t="s">
+        <v>565</v>
+      </c>
+      <c r="E27" s="100">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="F27" s="100">
+        <f t="shared" si="0"/>
+        <v>4.3961648306813546E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D28" t="s">
+        <v>566</v>
+      </c>
+      <c r="E28" s="100">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F28" s="100">
+        <f t="shared" si="0"/>
+        <v>3.6719706242350058E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" t="s">
+        <v>567</v>
+      </c>
+      <c r="E29" s="100">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F29" s="100">
+        <f t="shared" si="0"/>
+        <v>9.1799265605875145E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
+        <v>558</v>
+      </c>
+      <c r="D30" t="s">
+        <v>568</v>
+      </c>
+      <c r="E30" s="100">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="F30" s="100">
+        <f t="shared" si="0"/>
+        <v>3.1823745410036713E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" t="s">
+        <v>558</v>
+      </c>
+      <c r="D31" t="s">
+        <v>569</v>
+      </c>
+      <c r="E31" s="100">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="F31" s="100">
+        <f t="shared" si="0"/>
+        <v>3.1619747042023662E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="100">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F32" s="100">
+        <f t="shared" si="0"/>
+        <v>2.0909832721338228E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" t="s">
+        <v>558</v>
+      </c>
+      <c r="D33" t="s">
+        <v>570</v>
+      </c>
+      <c r="E33" s="100">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="F33" s="100">
+        <f t="shared" si="0"/>
+        <v>4.2839657282741734E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="104">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="E22" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C23" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="104">
-        <v>0.1173</v>
-      </c>
-      <c r="E23" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C24" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="104">
-        <v>0.43880000000000002</v>
-      </c>
-      <c r="E24" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C25" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="104">
-        <v>0.2419</v>
-      </c>
-      <c r="E25" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C26" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="104">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="E26" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C27" s="103" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="104">
-        <v>1.29E-2</v>
-      </c>
-      <c r="E27" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C28" s="103" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="104">
-        <v>2.24E-2</v>
-      </c>
-      <c r="E28" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C29" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="104">
-        <v>2.24E-2</v>
-      </c>
-      <c r="E29" s="105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="106"/>
-      <c r="D30" s="107">
-        <f>SUM(D18:D29)</f>
+      <c r="D34"/>
+      <c r="E34" s="100">
+        <v>1.9599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" t="s">
+        <v>571</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" s="100">
+        <v>0.98040000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" t="s">
+        <v>572</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" s="108">
         <v>1</v>
       </c>
-      <c r="E30" s="106"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C18:E18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24024,7 +24206,7 @@
     <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" s="85"/>
       <c r="C5" s="85" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
@@ -24080,11 +24262,11 @@
     </row>
     <row r="10" spans="1:7" ht="12.95" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="71" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D10" s="72">
         <v>500000</v>
@@ -24101,11 +24283,11 @@
     </row>
     <row r="11" spans="1:7" ht="12.95" customHeight="1">
       <c r="A11" s="71" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="71" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D11" s="72">
         <v>500000</v>
@@ -24122,11 +24304,11 @@
     </row>
     <row r="12" spans="1:7" ht="12.95" customHeight="1">
       <c r="A12" s="71" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="71" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D12" s="72">
         <v>500000</v>
@@ -24147,7 +24329,7 @@
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D13" s="72">
         <v>500000</v>
@@ -24164,11 +24346,11 @@
     </row>
     <row r="14" spans="1:7" ht="12.95" customHeight="1">
       <c r="A14" s="71" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D14" s="72">
         <v>500000</v>
@@ -24185,11 +24367,11 @@
     </row>
     <row r="15" spans="1:7" ht="12.95" customHeight="1">
       <c r="A15" s="71" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D15" s="72">
         <v>500000</v>
@@ -24210,7 +24392,7 @@
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D16" s="72">
         <v>500000</v>
@@ -24242,7 +24424,7 @@
     </row>
     <row r="18" spans="1:7" ht="12.95" customHeight="1">
       <c r="A18" s="69" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
@@ -24259,7 +24441,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D19" s="72">
         <v>7817</v>
@@ -24276,7 +24458,7 @@
     </row>
     <row r="20" spans="1:7" ht="12.95" customHeight="1">
       <c r="A20" s="75" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D20" s="76">
         <v>7817</v>
@@ -24291,7 +24473,7 @@
     </row>
     <row r="21" spans="1:7" ht="12.95" customHeight="1">
       <c r="A21" s="69" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
@@ -24302,11 +24484,11 @@
     </row>
     <row r="22" spans="1:7" ht="12.95" customHeight="1">
       <c r="A22" s="71" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D22" s="72">
         <v>281000</v>
@@ -24323,11 +24505,11 @@
     </row>
     <row r="23" spans="1:7" ht="12.95" customHeight="1">
       <c r="A23" s="71" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B23" s="71"/>
       <c r="C23" s="71" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D23" s="72">
         <v>254000</v>
@@ -24344,11 +24526,11 @@
     </row>
     <row r="24" spans="1:7" ht="12.95" customHeight="1">
       <c r="A24" s="71" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D24" s="72">
         <v>243000</v>
@@ -24365,11 +24547,11 @@
     </row>
     <row r="25" spans="1:7" ht="12.95" customHeight="1">
       <c r="A25" s="71" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D25" s="72">
         <v>235000</v>
@@ -24386,11 +24568,11 @@
     </row>
     <row r="26" spans="1:7" ht="12.95" customHeight="1">
       <c r="A26" s="71" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D26" s="72">
         <v>227000</v>
@@ -24407,11 +24589,11 @@
     </row>
     <row r="27" spans="1:7" ht="12.95" customHeight="1">
       <c r="A27" s="71" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B27" s="71"/>
       <c r="C27" s="71" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D27" s="72">
         <v>248000</v>
@@ -24428,11 +24610,11 @@
     </row>
     <row r="28" spans="1:7" ht="12.95" customHeight="1">
       <c r="A28" s="71" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B28" s="71"/>
       <c r="C28" s="71" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D28" s="72">
         <v>228000</v>
@@ -24449,11 +24631,11 @@
     </row>
     <row r="29" spans="1:7" ht="12.95" customHeight="1">
       <c r="A29" s="71" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D29" s="72">
         <v>228000</v>
@@ -24470,11 +24652,11 @@
     </row>
     <row r="30" spans="1:7" ht="12.95" customHeight="1">
       <c r="A30" s="71" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B30" s="71"/>
       <c r="C30" s="71" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D30" s="72">
         <v>246000</v>
@@ -24491,11 +24673,11 @@
     </row>
     <row r="31" spans="1:7" ht="12.95" customHeight="1">
       <c r="A31" s="71" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="71" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D31" s="72">
         <v>218000</v>
@@ -24512,11 +24694,11 @@
     </row>
     <row r="32" spans="1:7" ht="12.95" customHeight="1">
       <c r="A32" s="71" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="71" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D32" s="72">
         <v>215000</v>
@@ -24533,11 +24715,11 @@
     </row>
     <row r="33" spans="1:7" ht="12.95" customHeight="1">
       <c r="A33" s="71" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D33" s="72">
         <v>219000</v>
@@ -24554,11 +24736,11 @@
     </row>
     <row r="34" spans="1:7" ht="12.95" customHeight="1">
       <c r="A34" s="71" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B34" s="71"/>
       <c r="C34" s="71" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D34" s="72">
         <v>215000</v>
@@ -24575,11 +24757,11 @@
     </row>
     <row r="35" spans="1:7" ht="12.95" customHeight="1">
       <c r="A35" s="71" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D35" s="72">
         <v>187000</v>
@@ -24596,11 +24778,11 @@
     </row>
     <row r="36" spans="1:7" ht="12.95" customHeight="1">
       <c r="A36" s="71" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="71" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D36" s="72">
         <v>189000</v>
@@ -24617,11 +24799,11 @@
     </row>
     <row r="37" spans="1:7" ht="12.95" customHeight="1">
       <c r="A37" s="71" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B37" s="71"/>
       <c r="C37" s="71" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D37" s="72">
         <v>191000</v>
@@ -24638,11 +24820,11 @@
     </row>
     <row r="38" spans="1:7" ht="12.95" customHeight="1">
       <c r="A38" s="71" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="71" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D38" s="72">
         <v>186000</v>
@@ -24659,11 +24841,11 @@
     </row>
     <row r="39" spans="1:7" ht="12.95" customHeight="1">
       <c r="A39" s="71" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B39" s="71"/>
       <c r="C39" s="71" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D39" s="72">
         <v>189000</v>
@@ -24680,11 +24862,11 @@
     </row>
     <row r="40" spans="1:7" ht="12.95" customHeight="1">
       <c r="A40" s="71" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="71" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D40" s="72">
         <v>179000</v>
@@ -24701,11 +24883,11 @@
     </row>
     <row r="41" spans="1:7" ht="12.95" customHeight="1">
       <c r="A41" s="71" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="71" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D41" s="72">
         <v>185000</v>
@@ -24722,11 +24904,11 @@
     </row>
     <row r="42" spans="1:7" ht="12.95" customHeight="1">
       <c r="A42" s="71" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B42" s="71"/>
       <c r="C42" s="71" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D42" s="72">
         <v>185000</v>
@@ -24743,11 +24925,11 @@
     </row>
     <row r="43" spans="1:7" ht="12.95" customHeight="1">
       <c r="A43" s="71" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B43" s="71"/>
       <c r="C43" s="71" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D43" s="72">
         <v>158000</v>
@@ -24764,11 +24946,11 @@
     </row>
     <row r="44" spans="1:7" ht="12.95" customHeight="1">
       <c r="A44" s="71" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B44" s="71"/>
       <c r="C44" s="71" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D44" s="72">
         <v>147000</v>
@@ -24785,11 +24967,11 @@
     </row>
     <row r="45" spans="1:7" ht="12.95" customHeight="1">
       <c r="A45" s="71" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B45" s="71"/>
       <c r="C45" s="71" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D45" s="72">
         <v>156000</v>
@@ -24806,11 +24988,11 @@
     </row>
     <row r="46" spans="1:7" ht="12.95" customHeight="1">
       <c r="A46" s="71" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B46" s="71"/>
       <c r="C46" s="71" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D46" s="72">
         <v>156000</v>
@@ -24827,11 +25009,11 @@
     </row>
     <row r="47" spans="1:7" ht="12.95" customHeight="1">
       <c r="A47" s="71" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B47" s="71"/>
       <c r="C47" s="71" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D47" s="72">
         <v>144000</v>
@@ -24848,11 +25030,11 @@
     </row>
     <row r="48" spans="1:7" ht="12.95" customHeight="1">
       <c r="A48" s="71" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B48" s="71"/>
       <c r="C48" s="71" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D48" s="72">
         <v>142000</v>
@@ -24869,11 +25051,11 @@
     </row>
     <row r="49" spans="1:7" ht="12.95" customHeight="1">
       <c r="A49" s="71" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B49" s="71"/>
       <c r="C49" s="71" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D49" s="72">
         <v>141000</v>
@@ -24890,11 +25072,11 @@
     </row>
     <row r="50" spans="1:7" ht="12.95" customHeight="1">
       <c r="A50" s="71" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B50" s="71"/>
       <c r="C50" s="71" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D50" s="72">
         <v>128000</v>
@@ -24911,11 +25093,11 @@
     </row>
     <row r="51" spans="1:7" ht="12.95" customHeight="1">
       <c r="A51" s="71" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B51" s="71"/>
       <c r="C51" s="71" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D51" s="72">
         <v>97000</v>
@@ -24932,11 +25114,11 @@
     </row>
     <row r="52" spans="1:7" ht="12.95" customHeight="1">
       <c r="A52" s="71" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D52" s="72">
         <v>95000</v>
@@ -24953,11 +25135,11 @@
     </row>
     <row r="53" spans="1:7" ht="12.95" customHeight="1">
       <c r="A53" s="71" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D53" s="72">
         <v>89000</v>
@@ -24974,11 +25156,11 @@
     </row>
     <row r="54" spans="1:7" ht="12.95" customHeight="1">
       <c r="A54" s="71" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B54" s="71"/>
       <c r="C54" s="71" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D54" s="72">
         <v>86000</v>
@@ -24995,11 +25177,11 @@
     </row>
     <row r="55" spans="1:7" ht="12.95" customHeight="1">
       <c r="A55" s="71" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B55" s="71"/>
       <c r="C55" s="71" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D55" s="72">
         <v>81000</v>
@@ -25016,11 +25198,11 @@
     </row>
     <row r="56" spans="1:7" ht="12.95" customHeight="1">
       <c r="A56" s="71" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B56" s="71"/>
       <c r="C56" s="71" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D56" s="72">
         <v>72000</v>
@@ -25037,11 +25219,11 @@
     </row>
     <row r="57" spans="1:7" ht="12.95" customHeight="1">
       <c r="A57" s="71" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B57" s="71"/>
       <c r="C57" s="71" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D57" s="72">
         <v>75000</v>
@@ -25058,11 +25240,11 @@
     </row>
     <row r="58" spans="1:7" ht="12.95" customHeight="1">
       <c r="A58" s="71" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D58" s="72">
         <v>75000</v>
@@ -25079,11 +25261,11 @@
     </row>
     <row r="59" spans="1:7" ht="12.95" customHeight="1">
       <c r="A59" s="71" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B59" s="71"/>
       <c r="C59" s="71" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D59" s="72">
         <v>63000</v>
@@ -25100,11 +25282,11 @@
     </row>
     <row r="60" spans="1:7" ht="12.95" customHeight="1">
       <c r="A60" s="71" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B60" s="71"/>
       <c r="C60" s="71" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D60" s="72">
         <v>62000</v>
@@ -25121,11 +25303,11 @@
     </row>
     <row r="61" spans="1:7" ht="12.95" customHeight="1">
       <c r="A61" s="71" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B61" s="71"/>
       <c r="C61" s="71" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D61" s="72">
         <v>60000</v>
@@ -25142,11 +25324,11 @@
     </row>
     <row r="62" spans="1:7" ht="12.95" customHeight="1">
       <c r="A62" s="71" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B62" s="71"/>
       <c r="C62" s="71" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D62" s="72">
         <v>48000</v>
@@ -25163,11 +25345,11 @@
     </row>
     <row r="63" spans="1:7" ht="12.95" customHeight="1">
       <c r="A63" s="71" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B63" s="71"/>
       <c r="C63" s="71" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D63" s="72">
         <v>45000</v>
@@ -25184,11 +25366,11 @@
     </row>
     <row r="64" spans="1:7" ht="12.95" customHeight="1">
       <c r="A64" s="71" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B64" s="71"/>
       <c r="C64" s="71" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D64" s="72">
         <v>36000</v>
@@ -25205,11 +25387,11 @@
     </row>
     <row r="65" spans="1:8" ht="12.95" customHeight="1">
       <c r="A65" s="71" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="71" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D65" s="72">
         <v>15000</v>
@@ -25226,7 +25408,7 @@
     </row>
     <row r="66" spans="1:8" ht="12.95" customHeight="1">
       <c r="A66" s="75" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D66" s="76">
         <v>6719000</v>
@@ -25241,7 +25423,7 @@
     </row>
     <row r="67" spans="1:8" ht="12.95" customHeight="1">
       <c r="A67" s="69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B67" s="70"/>
       <c r="C67" s="70"/>
@@ -25252,13 +25434,13 @@
     </row>
     <row r="68" spans="1:8" ht="12.95" customHeight="1">
       <c r="A68" s="71" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B68" s="71" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C68" s="71" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D68" s="72">
         <v>6892322.4500000002</v>
@@ -25275,11 +25457,11 @@
     </row>
     <row r="69" spans="1:8" ht="12.95" customHeight="1">
       <c r="A69" s="71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D69" s="72">
         <v>5558000</v>
@@ -25296,7 +25478,7 @@
     </row>
     <row r="70" spans="1:8" ht="12.95" customHeight="1">
       <c r="A70" s="75" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D70" s="76">
         <v>12450322.449999999</v>
@@ -25322,11 +25504,11 @@
     </row>
     <row r="72" spans="1:8" ht="12.95" customHeight="1">
       <c r="A72" s="79" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B72" s="79"/>
       <c r="C72" s="79" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D72" s="80">
         <v>2200000</v>
@@ -25340,17 +25522,17 @@
       <c r="G72" s="82">
         <v>2201650</v>
       </c>
-      <c r="H72" s="112">
+      <c r="H72" s="105">
         <v>1.4195365745327353E-2</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="12.95" customHeight="1">
       <c r="A73" s="79" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B73" s="79"/>
       <c r="C73" s="79" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D73" s="80">
         <v>2100000</v>
@@ -25364,7 +25546,7 @@
       <c r="G73" s="82">
         <v>2094750</v>
       </c>
-      <c r="H73" s="112">
+      <c r="H73" s="105">
         <v>1.3506116955476336E-2</v>
       </c>
     </row>
@@ -25374,7 +25556,7 @@
       </c>
       <c r="B74" s="79"/>
       <c r="C74" s="79" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D74" s="80">
         <v>1900000</v>
@@ -25388,17 +25570,17 @@
       <c r="G74" s="82">
         <v>1889445.5</v>
       </c>
-      <c r="H74" s="112">
+      <c r="H74" s="105">
         <v>1.2182394989377473E-2</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="12.95" customHeight="1">
       <c r="A75" s="79" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B75" s="79"/>
       <c r="C75" s="79" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D75" s="80">
         <v>1849999.99</v>
@@ -25412,7 +25594,7 @@
       <c r="G75" s="82">
         <v>1797931.74</v>
       </c>
-      <c r="H75" s="112">
+      <c r="H75" s="105">
         <v>1.1592350570904915E-2</v>
       </c>
     </row>
@@ -25422,7 +25604,7 @@
       </c>
       <c r="B76" s="79"/>
       <c r="C76" s="79" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D76" s="80">
         <v>1800000</v>
@@ -25436,7 +25618,7 @@
       <c r="G76" s="82">
         <v>1785798</v>
       </c>
-      <c r="H76" s="112">
+      <c r="H76" s="105">
         <v>1.1514117029170892E-2</v>
       </c>
     </row>
@@ -25446,7 +25628,7 @@
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="71" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D77" s="72">
         <v>1747422.66</v>
@@ -25463,11 +25645,11 @@
     </row>
     <row r="78" spans="1:8" ht="12.95" customHeight="1">
       <c r="A78" s="71" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B78" s="71"/>
       <c r="C78" s="71" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D78" s="72">
         <v>1729541.13</v>
@@ -25484,11 +25666,11 @@
     </row>
     <row r="79" spans="1:8" ht="12.95" customHeight="1">
       <c r="A79" s="71" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B79" s="71"/>
       <c r="C79" s="71" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D79" s="72">
         <v>1699999.9948</v>
@@ -25505,11 +25687,11 @@
     </row>
     <row r="80" spans="1:8" ht="12.95" customHeight="1">
       <c r="A80" s="71" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B80" s="71"/>
       <c r="C80" s="71" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D80" s="72">
         <v>1600000</v>
@@ -25526,11 +25708,11 @@
     </row>
     <row r="81" spans="1:7" ht="12.95" customHeight="1">
       <c r="A81" s="71" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="71" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D81" s="72">
         <v>1500000</v>
@@ -25547,11 +25729,11 @@
     </row>
     <row r="82" spans="1:7" ht="12.95" customHeight="1">
       <c r="A82" s="71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B82" s="71"/>
       <c r="C82" s="71" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D82" s="72">
         <v>1492443.33</v>
@@ -25568,11 +25750,11 @@
     </row>
     <row r="83" spans="1:7" ht="12.95" customHeight="1">
       <c r="A83" s="71" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B83" s="71"/>
       <c r="C83" s="71" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D83" s="72">
         <v>1486498.19</v>
@@ -25593,7 +25775,7 @@
       </c>
       <c r="B84" s="71"/>
       <c r="C84" s="71" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D84" s="72">
         <v>1499999.98</v>
@@ -25610,11 +25792,11 @@
     </row>
     <row r="85" spans="1:7" ht="12.95" customHeight="1">
       <c r="A85" s="71" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="71" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D85" s="72">
         <v>1479993.68</v>
@@ -25631,11 +25813,11 @@
     </row>
     <row r="86" spans="1:7" ht="12.95" customHeight="1">
       <c r="A86" s="71" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B86" s="71"/>
       <c r="C86" s="71" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D86" s="72">
         <v>1444000</v>
@@ -25652,11 +25834,11 @@
     </row>
     <row r="87" spans="1:7" ht="12.95" customHeight="1">
       <c r="A87" s="71" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B87" s="71"/>
       <c r="C87" s="71" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D87" s="72">
         <v>1420493.73</v>
@@ -25673,11 +25855,11 @@
     </row>
     <row r="88" spans="1:7" ht="12.95" customHeight="1">
       <c r="A88" s="71" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B88" s="71"/>
       <c r="C88" s="71" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D88" s="72">
         <v>1428603.17</v>
@@ -25694,11 +25876,11 @@
     </row>
     <row r="89" spans="1:7" ht="12.95" customHeight="1">
       <c r="A89" s="71" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B89" s="71"/>
       <c r="C89" s="71" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D89" s="72">
         <v>1414604.12</v>
@@ -25715,11 +25897,11 @@
     </row>
     <row r="90" spans="1:7" ht="12.95" customHeight="1">
       <c r="A90" s="71" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B90" s="71"/>
       <c r="C90" s="71" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D90" s="72">
         <v>1400000</v>
@@ -25740,7 +25922,7 @@
       </c>
       <c r="B91" s="71"/>
       <c r="C91" s="71" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D91" s="72">
         <v>1387936.68</v>
@@ -25757,11 +25939,11 @@
     </row>
     <row r="92" spans="1:7" ht="12.95" customHeight="1">
       <c r="A92" s="71" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B92" s="71"/>
       <c r="C92" s="71" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D92" s="72">
         <v>1396437.67</v>
@@ -25778,11 +25960,11 @@
     </row>
     <row r="93" spans="1:7" ht="12.95" customHeight="1">
       <c r="A93" s="71" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B93" s="71"/>
       <c r="C93" s="71" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D93" s="72">
         <v>1350000</v>
@@ -25799,11 +25981,11 @@
     </row>
     <row r="94" spans="1:7" ht="12.95" customHeight="1">
       <c r="A94" s="71" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B94" s="71"/>
       <c r="C94" s="71" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D94" s="72">
         <v>1316640.19</v>
@@ -25820,11 +26002,11 @@
     </row>
     <row r="95" spans="1:7" ht="12.95" customHeight="1">
       <c r="A95" s="71" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B95" s="71"/>
       <c r="C95" s="71" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D95" s="72">
         <v>1328286.48</v>
@@ -25841,11 +26023,11 @@
     </row>
     <row r="96" spans="1:7" ht="12.95" customHeight="1">
       <c r="A96" s="71" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B96" s="71"/>
       <c r="C96" s="71" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D96" s="72">
         <v>1300000.0038999999</v>
@@ -25862,11 +26044,11 @@
     </row>
     <row r="97" spans="1:7" ht="12.95" customHeight="1">
       <c r="A97" s="71" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B97" s="71"/>
       <c r="C97" s="71" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D97" s="72">
         <v>1298088.57</v>
@@ -25883,11 +26065,11 @@
     </row>
     <row r="98" spans="1:7" ht="12.95" customHeight="1">
       <c r="A98" s="71" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B98" s="71"/>
       <c r="C98" s="71" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D98" s="72">
         <v>1332935.4454000001</v>
@@ -25904,11 +26086,11 @@
     </row>
     <row r="99" spans="1:7" ht="12.95" customHeight="1">
       <c r="A99" s="71" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B99" s="71"/>
       <c r="C99" s="71" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D99" s="72">
         <v>1300000</v>
@@ -25925,11 +26107,11 @@
     </row>
     <row r="100" spans="1:7" ht="12.95" customHeight="1">
       <c r="A100" s="71" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B100" s="71"/>
       <c r="C100" s="71" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D100" s="72">
         <v>1263320.93</v>
@@ -25946,11 +26128,11 @@
     </row>
     <row r="101" spans="1:7" ht="12.95" customHeight="1">
       <c r="A101" s="71" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B101" s="71"/>
       <c r="C101" s="71" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D101" s="72">
         <v>1250000</v>
@@ -25971,7 +26153,7 @@
       </c>
       <c r="B102" s="71"/>
       <c r="C102" s="71" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D102" s="72">
         <v>1246811.19</v>
@@ -25988,11 +26170,11 @@
     </row>
     <row r="103" spans="1:7" ht="12.95" customHeight="1">
       <c r="A103" s="71" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B103" s="71"/>
       <c r="C103" s="71" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D103" s="72">
         <v>1246851.3899999999</v>
@@ -26009,11 +26191,11 @@
     </row>
     <row r="104" spans="1:7" ht="12.95" customHeight="1">
       <c r="A104" s="71" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B104" s="71"/>
       <c r="C104" s="71" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D104" s="72">
         <v>1250000</v>
@@ -26030,11 +26212,11 @@
     </row>
     <row r="105" spans="1:7" ht="12.95" customHeight="1">
       <c r="A105" s="71" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B105" s="71"/>
       <c r="C105" s="71" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D105" s="72">
         <v>1250000</v>
@@ -26051,11 +26233,11 @@
     </row>
     <row r="106" spans="1:7" ht="12.95" customHeight="1">
       <c r="A106" s="71" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B106" s="71"/>
       <c r="C106" s="71" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D106" s="72">
         <v>1243718.6000000001</v>
@@ -26076,7 +26258,7 @@
       </c>
       <c r="B107" s="71"/>
       <c r="C107" s="71" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D107" s="72">
         <v>1147073.79</v>
@@ -26093,11 +26275,11 @@
     </row>
     <row r="108" spans="1:7" ht="12.95" customHeight="1">
       <c r="A108" s="71" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B108" s="71"/>
       <c r="C108" s="71" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D108" s="72">
         <v>1125000</v>
@@ -26114,11 +26296,11 @@
     </row>
     <row r="109" spans="1:7" ht="12.95" customHeight="1">
       <c r="A109" s="71" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B109" s="71"/>
       <c r="C109" s="71" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D109" s="72">
         <v>1100000</v>
@@ -26135,11 +26317,11 @@
     </row>
     <row r="110" spans="1:7" ht="12.95" customHeight="1">
       <c r="A110" s="71" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B110" s="71"/>
       <c r="C110" s="71" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D110" s="72">
         <v>1100000</v>
@@ -26156,11 +26338,11 @@
     </row>
     <row r="111" spans="1:7" ht="12.95" customHeight="1">
       <c r="A111" s="71" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B111" s="71"/>
       <c r="C111" s="71" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D111" s="72">
         <v>1100000</v>
@@ -26177,11 +26359,11 @@
     </row>
     <row r="112" spans="1:7" ht="12.95" customHeight="1">
       <c r="A112" s="71" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B112" s="71"/>
       <c r="C112" s="71" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D112" s="72">
         <v>1100000</v>
@@ -26198,11 +26380,11 @@
     </row>
     <row r="113" spans="1:7" ht="12.95" customHeight="1">
       <c r="A113" s="71" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B113" s="71"/>
       <c r="C113" s="71" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D113" s="72">
         <v>1100000</v>
@@ -26219,11 +26401,11 @@
     </row>
     <row r="114" spans="1:7" ht="12.95" customHeight="1">
       <c r="A114" s="71" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B114" s="71"/>
       <c r="C114" s="71" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D114" s="72">
         <v>1093294.47</v>
@@ -26240,11 +26422,11 @@
     </row>
     <row r="115" spans="1:7" ht="12.95" customHeight="1">
       <c r="A115" s="71" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B115" s="71"/>
       <c r="C115" s="71" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D115" s="72">
         <v>1072921.9099999999</v>
@@ -26261,11 +26443,11 @@
     </row>
     <row r="116" spans="1:7" ht="12.95" customHeight="1">
       <c r="A116" s="71" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B116" s="71"/>
       <c r="C116" s="71" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D116" s="72">
         <v>1097208.1000000001</v>
@@ -26286,7 +26468,7 @@
       </c>
       <c r="B117" s="71"/>
       <c r="C117" s="71" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D117" s="72">
         <v>1075000.03</v>
@@ -26303,11 +26485,11 @@
     </row>
     <row r="118" spans="1:7" ht="12.95" customHeight="1">
       <c r="A118" s="71" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B118" s="71"/>
       <c r="C118" s="71" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D118" s="72">
         <v>1055461.92</v>
@@ -26324,11 +26506,11 @@
     </row>
     <row r="119" spans="1:7" ht="12.95" customHeight="1">
       <c r="A119" s="71" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B119" s="71"/>
       <c r="C119" s="71" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D119" s="72">
         <v>1051697.6525999999</v>
@@ -26345,11 +26527,11 @@
     </row>
     <row r="120" spans="1:7" ht="12.95" customHeight="1">
       <c r="A120" s="71" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B120" s="71"/>
       <c r="C120" s="71" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D120" s="72">
         <v>1038933.24</v>
@@ -26366,11 +26548,11 @@
     </row>
     <row r="121" spans="1:7" ht="12.95" customHeight="1">
       <c r="A121" s="71" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B121" s="71"/>
       <c r="C121" s="71" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="D121" s="72">
         <v>1041594.55</v>
@@ -26387,11 +26569,11 @@
     </row>
     <row r="122" spans="1:7" ht="12.95" customHeight="1">
       <c r="A122" s="71" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B122" s="71"/>
       <c r="C122" s="71" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D122" s="72">
         <v>1011000</v>
@@ -26408,11 +26590,11 @@
     </row>
     <row r="123" spans="1:7" ht="12.95" customHeight="1">
       <c r="A123" s="71" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B123" s="71"/>
       <c r="C123" s="71" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D123" s="72">
         <v>1000000</v>
@@ -26429,11 +26611,11 @@
     </row>
     <row r="124" spans="1:7" ht="12.95" customHeight="1">
       <c r="A124" s="71" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B124" s="71"/>
       <c r="C124" s="71" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D124" s="72">
         <v>997493.74</v>
@@ -26450,11 +26632,11 @@
     </row>
     <row r="125" spans="1:7" ht="12.95" customHeight="1">
       <c r="A125" s="71" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B125" s="71"/>
       <c r="C125" s="71" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D125" s="72">
         <v>997493.73</v>
@@ -26471,11 +26653,11 @@
     </row>
     <row r="126" spans="1:7" ht="12.95" customHeight="1">
       <c r="A126" s="71" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B126" s="71"/>
       <c r="C126" s="71" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D126" s="72">
         <v>997500</v>
@@ -26492,11 +26674,11 @@
     </row>
     <row r="127" spans="1:7" ht="12.95" customHeight="1">
       <c r="A127" s="71" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B127" s="71"/>
       <c r="C127" s="71" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D127" s="72">
         <v>997455.46</v>
@@ -26513,11 +26695,11 @@
     </row>
     <row r="128" spans="1:7" ht="12.95" customHeight="1">
       <c r="A128" s="71" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B128" s="71"/>
       <c r="C128" s="71" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D128" s="72">
         <v>1000000</v>
@@ -26534,11 +26716,11 @@
     </row>
     <row r="129" spans="1:7" ht="12.95" customHeight="1">
       <c r="A129" s="71" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B129" s="71"/>
       <c r="C129" s="71" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D129" s="72">
         <v>1000000</v>
@@ -26555,11 +26737,11 @@
     </row>
     <row r="130" spans="1:7" ht="12.95" customHeight="1">
       <c r="A130" s="71" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B130" s="71"/>
       <c r="C130" s="71" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="D130" s="72">
         <v>1000000</v>
@@ -26576,11 +26758,11 @@
     </row>
     <row r="131" spans="1:7" ht="12.95" customHeight="1">
       <c r="A131" s="71" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B131" s="71"/>
       <c r="C131" s="71" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D131" s="72">
         <v>1000000</v>
@@ -26597,11 +26779,11 @@
     </row>
     <row r="132" spans="1:7" ht="12.95" customHeight="1">
       <c r="A132" s="71" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B132" s="71"/>
       <c r="C132" s="71" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D132" s="72">
         <v>997481.11</v>
@@ -26618,11 +26800,11 @@
     </row>
     <row r="133" spans="1:7" ht="12.95" customHeight="1">
       <c r="A133" s="71" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B133" s="71"/>
       <c r="C133" s="71" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D133" s="72">
         <v>1000000</v>
@@ -26639,11 +26821,11 @@
     </row>
     <row r="134" spans="1:7" ht="12.95" customHeight="1">
       <c r="A134" s="71" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B134" s="71"/>
       <c r="C134" s="71" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D134" s="72">
         <v>1000000</v>
@@ -26660,11 +26842,11 @@
     </row>
     <row r="135" spans="1:7" ht="12.95" customHeight="1">
       <c r="A135" s="71" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B135" s="71"/>
       <c r="C135" s="71" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="D135" s="72">
         <v>1000000</v>
@@ -26681,11 +26863,11 @@
     </row>
     <row r="136" spans="1:7" ht="12.95" customHeight="1">
       <c r="A136" s="71" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B136" s="71"/>
       <c r="C136" s="71" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D136" s="72">
         <v>1000000</v>
@@ -26702,11 +26884,11 @@
     </row>
     <row r="137" spans="1:7" ht="12.95" customHeight="1">
       <c r="A137" s="71" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B137" s="71"/>
       <c r="C137" s="71" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D137" s="72">
         <v>1000000</v>
@@ -26723,11 +26905,11 @@
     </row>
     <row r="138" spans="1:7" ht="12.95" customHeight="1">
       <c r="A138" s="71" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B138" s="71"/>
       <c r="C138" s="71" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D138" s="72">
         <v>944006.03</v>
@@ -26744,11 +26926,11 @@
     </row>
     <row r="139" spans="1:7" ht="12.95" customHeight="1">
       <c r="A139" s="71" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B139" s="71"/>
       <c r="C139" s="71" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D139" s="72">
         <v>900156.26</v>
@@ -26765,11 +26947,11 @@
     </row>
     <row r="140" spans="1:7" ht="12.95" customHeight="1">
       <c r="A140" s="71" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B140" s="71"/>
       <c r="C140" s="71" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D140" s="72">
         <v>897733</v>
@@ -26786,11 +26968,11 @@
     </row>
     <row r="141" spans="1:7" ht="12.95" customHeight="1">
       <c r="A141" s="71" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B141" s="71"/>
       <c r="C141" s="71" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D141" s="72">
         <v>897027.71</v>
@@ -26807,11 +26989,11 @@
     </row>
     <row r="142" spans="1:7" ht="12.95" customHeight="1">
       <c r="A142" s="71" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B142" s="71"/>
       <c r="C142" s="71" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D142" s="72">
         <v>898714.65</v>
@@ -26828,11 +27010,11 @@
     </row>
     <row r="143" spans="1:7" ht="12.95" customHeight="1">
       <c r="A143" s="71" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B143" s="71"/>
       <c r="C143" s="71" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D143" s="72">
         <v>875000</v>
@@ -26849,11 +27031,11 @@
     </row>
     <row r="144" spans="1:7" ht="12.95" customHeight="1">
       <c r="A144" s="71" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B144" s="71"/>
       <c r="C144" s="71" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D144" s="72">
         <v>888112.1</v>
@@ -26870,11 +27052,11 @@
     </row>
     <row r="145" spans="1:7" ht="12.95" customHeight="1">
       <c r="A145" s="71" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B145" s="71"/>
       <c r="C145" s="71" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D145" s="72">
         <v>875315.89489999996</v>
@@ -26891,11 +27073,11 @@
     </row>
     <row r="146" spans="1:7" ht="12.95" customHeight="1">
       <c r="A146" s="71" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B146" s="71"/>
       <c r="C146" s="71" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D146" s="72">
         <v>847875</v>
@@ -26912,11 +27094,11 @@
     </row>
     <row r="147" spans="1:7" ht="12.95" customHeight="1">
       <c r="A147" s="71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B147" s="71"/>
       <c r="C147" s="71" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D147" s="72">
         <v>852792.13</v>
@@ -26933,11 +27115,11 @@
     </row>
     <row r="148" spans="1:7" ht="12.95" customHeight="1">
       <c r="A148" s="71" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B148" s="71"/>
       <c r="C148" s="71" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D148" s="72">
         <v>832441.17</v>
@@ -26954,11 +27136,11 @@
     </row>
     <row r="149" spans="1:7" ht="12.95" customHeight="1">
       <c r="A149" s="71" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B149" s="71"/>
       <c r="C149" s="71" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D149" s="72">
         <v>831531.59</v>
@@ -26975,11 +27157,11 @@
     </row>
     <row r="150" spans="1:7" ht="12.95" customHeight="1">
       <c r="A150" s="71" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B150" s="71"/>
       <c r="C150" s="71" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D150" s="72">
         <v>837758.92</v>
@@ -27000,7 +27182,7 @@
       </c>
       <c r="B151" s="71"/>
       <c r="C151" s="71" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D151" s="72">
         <v>799999.99</v>
@@ -27017,11 +27199,11 @@
     </row>
     <row r="152" spans="1:7" ht="12.95" customHeight="1">
       <c r="A152" s="71" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B152" s="71"/>
       <c r="C152" s="71" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D152" s="72">
         <v>822951.18</v>
@@ -27038,11 +27220,11 @@
     </row>
     <row r="153" spans="1:7" ht="12.95" customHeight="1">
       <c r="A153" s="71" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B153" s="71"/>
       <c r="C153" s="71" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D153" s="72">
         <v>750000</v>
@@ -27059,11 +27241,11 @@
     </row>
     <row r="154" spans="1:7" ht="12.95" customHeight="1">
       <c r="A154" s="71" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B154" s="71"/>
       <c r="C154" s="71" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D154" s="72">
         <v>748124.99</v>
@@ -27080,11 +27262,11 @@
     </row>
     <row r="155" spans="1:7" ht="12.95" customHeight="1">
       <c r="A155" s="71" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B155" s="71"/>
       <c r="C155" s="71" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D155" s="72">
         <v>750000</v>
@@ -27101,11 +27283,11 @@
     </row>
     <row r="156" spans="1:7" ht="12.95" customHeight="1">
       <c r="A156" s="71" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B156" s="71"/>
       <c r="C156" s="71" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D156" s="72">
         <v>750000</v>
@@ -27122,11 +27304,11 @@
     </row>
     <row r="157" spans="1:7" ht="12.95" customHeight="1">
       <c r="A157" s="71" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B157" s="71"/>
       <c r="C157" s="71" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D157" s="72">
         <v>750000</v>
@@ -27143,11 +27325,11 @@
     </row>
     <row r="158" spans="1:7" ht="12.95" customHeight="1">
       <c r="A158" s="71" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B158" s="71"/>
       <c r="C158" s="71" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D158" s="72">
         <v>717064.65500000003</v>
@@ -27164,11 +27346,11 @@
     </row>
     <row r="159" spans="1:7" ht="12.95" customHeight="1">
       <c r="A159" s="71" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B159" s="71"/>
       <c r="C159" s="71" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D159" s="72">
         <v>700000</v>
@@ -27185,11 +27367,11 @@
     </row>
     <row r="160" spans="1:7" ht="12.95" customHeight="1">
       <c r="A160" s="71" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B160" s="71"/>
       <c r="C160" s="71" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D160" s="72">
         <v>666541.35</v>
@@ -27206,11 +27388,11 @@
     </row>
     <row r="161" spans="1:7" ht="12.95" customHeight="1">
       <c r="A161" s="71" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B161" s="71"/>
       <c r="C161" s="71" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D161" s="72">
         <v>650000</v>
@@ -27227,11 +27409,11 @@
     </row>
     <row r="162" spans="1:7" ht="12.95" customHeight="1">
       <c r="A162" s="71" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B162" s="71"/>
       <c r="C162" s="71" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D162" s="72">
         <v>595500</v>
@@ -27248,11 +27430,11 @@
     </row>
     <row r="163" spans="1:7" ht="12.95" customHeight="1">
       <c r="A163" s="71" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B163" s="71"/>
       <c r="C163" s="71" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D163" s="72">
         <v>602457.1</v>
@@ -27269,11 +27451,11 @@
     </row>
     <row r="164" spans="1:7" ht="12.95" customHeight="1">
       <c r="A164" s="71" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B164" s="71"/>
       <c r="C164" s="71" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D164" s="72">
         <v>577923.97</v>
@@ -27290,11 +27472,11 @@
     </row>
     <row r="165" spans="1:7" ht="12.95" customHeight="1">
       <c r="A165" s="71" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B165" s="71"/>
       <c r="C165" s="71" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D165" s="72">
         <v>600000</v>
@@ -27311,11 +27493,11 @@
     </row>
     <row r="166" spans="1:7" ht="12.95" customHeight="1">
       <c r="A166" s="71" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B166" s="71"/>
       <c r="C166" s="71" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="D166" s="72">
         <v>587000</v>
@@ -27332,11 +27514,11 @@
     </row>
     <row r="167" spans="1:7" ht="12.95" customHeight="1">
       <c r="A167" s="71" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B167" s="71"/>
       <c r="C167" s="71" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D167" s="72">
         <v>550000</v>
@@ -27353,11 +27535,11 @@
     </row>
     <row r="168" spans="1:7" ht="12.95" customHeight="1">
       <c r="A168" s="71" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B168" s="71"/>
       <c r="C168" s="71" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D168" s="72">
         <v>550000</v>
@@ -27374,11 +27556,11 @@
     </row>
     <row r="169" spans="1:7" ht="12.95" customHeight="1">
       <c r="A169" s="71" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B169" s="71"/>
       <c r="C169" s="71" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D169" s="72">
         <v>550000</v>
@@ -27395,11 +27577,11 @@
     </row>
     <row r="170" spans="1:7" ht="12.95" customHeight="1">
       <c r="A170" s="71" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B170" s="71"/>
       <c r="C170" s="71" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D170" s="72">
         <v>500000</v>
@@ -27416,11 +27598,11 @@
     </row>
     <row r="171" spans="1:7" ht="12.95" customHeight="1">
       <c r="A171" s="71" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B171" s="71"/>
       <c r="C171" s="71" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D171" s="72">
         <v>527000</v>
@@ -27437,11 +27619,11 @@
     </row>
     <row r="172" spans="1:7" ht="12.95" customHeight="1">
       <c r="A172" s="71" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B172" s="71"/>
       <c r="C172" s="71" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D172" s="72">
         <v>498743.72</v>
@@ -27458,11 +27640,11 @@
     </row>
     <row r="173" spans="1:7" ht="12.95" customHeight="1">
       <c r="A173" s="71" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B173" s="71"/>
       <c r="C173" s="71" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D173" s="72">
         <v>500000</v>
@@ -27479,11 +27661,11 @@
     </row>
     <row r="174" spans="1:7" ht="12.95" customHeight="1">
       <c r="A174" s="71" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="71" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="D174" s="72">
         <v>500000</v>
@@ -27500,11 +27682,11 @@
     </row>
     <row r="175" spans="1:7" ht="12.95" customHeight="1">
       <c r="A175" s="71" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B175" s="71"/>
       <c r="C175" s="71" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D175" s="72">
         <v>499250</v>
@@ -27521,11 +27703,11 @@
     </row>
     <row r="176" spans="1:7" ht="12.95" customHeight="1">
       <c r="A176" s="71" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B176" s="71"/>
       <c r="C176" s="71" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D176" s="72">
         <v>500000</v>
@@ -27542,11 +27724,11 @@
     </row>
     <row r="177" spans="1:7" ht="12.95" customHeight="1">
       <c r="A177" s="71" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B177" s="71"/>
       <c r="C177" s="71" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D177" s="72">
         <v>500000</v>
@@ -27563,11 +27745,11 @@
     </row>
     <row r="178" spans="1:7" ht="12.95" customHeight="1">
       <c r="A178" s="71" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B178" s="71"/>
       <c r="C178" s="71" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D178" s="72">
         <v>500000</v>
@@ -27584,11 +27766,11 @@
     </row>
     <row r="179" spans="1:7" ht="12.95" customHeight="1">
       <c r="A179" s="71" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B179" s="71"/>
       <c r="C179" s="71" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D179" s="72">
         <v>498750</v>
@@ -27605,11 +27787,11 @@
     </row>
     <row r="180" spans="1:7" ht="12.95" customHeight="1">
       <c r="A180" s="71" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B180" s="71"/>
       <c r="C180" s="71" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D180" s="72">
         <v>498746.85</v>
@@ -27626,11 +27808,11 @@
     </row>
     <row r="181" spans="1:7" ht="12.95" customHeight="1">
       <c r="A181" s="71" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B181" s="71"/>
       <c r="C181" s="71" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D181" s="72">
         <v>500000</v>
@@ -27647,11 +27829,11 @@
     </row>
     <row r="182" spans="1:7" ht="12.95" customHeight="1">
       <c r="A182" s="71" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B182" s="71"/>
       <c r="C182" s="71" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="D182" s="72">
         <v>500000</v>
@@ -27668,11 +27850,11 @@
     </row>
     <row r="183" spans="1:7" ht="12.95" customHeight="1">
       <c r="A183" s="71" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B183" s="71"/>
       <c r="C183" s="71" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D183" s="72">
         <v>500000</v>
@@ -27689,11 +27871,11 @@
     </row>
     <row r="184" spans="1:7" ht="12.95" customHeight="1">
       <c r="A184" s="71" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B184" s="71"/>
       <c r="C184" s="71" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D184" s="72">
         <v>500000</v>
@@ -27710,11 +27892,11 @@
     </row>
     <row r="185" spans="1:7" ht="12.95" customHeight="1">
       <c r="A185" s="71" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B185" s="71"/>
       <c r="C185" s="71" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D185" s="72">
         <v>500000</v>
@@ -27731,11 +27913,11 @@
     </row>
     <row r="186" spans="1:7" ht="12.95" customHeight="1">
       <c r="A186" s="71" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B186" s="71"/>
       <c r="C186" s="71" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D186" s="72">
         <v>498717.94</v>
@@ -27752,11 +27934,11 @@
     </row>
     <row r="187" spans="1:7" ht="12.95" customHeight="1">
       <c r="A187" s="71" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B187" s="71"/>
       <c r="C187" s="71" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D187" s="72">
         <v>498740.54</v>
@@ -27773,11 +27955,11 @@
     </row>
     <row r="188" spans="1:7" ht="12.95" customHeight="1">
       <c r="A188" s="71" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B188" s="71"/>
       <c r="C188" s="71" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D188" s="72">
         <v>496202.54</v>
@@ -27798,7 +27980,7 @@
       </c>
       <c r="B189" s="71"/>
       <c r="C189" s="71" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D189" s="72">
         <v>487405.5</v>
@@ -27815,11 +27997,11 @@
     </row>
     <row r="190" spans="1:7" ht="12.95" customHeight="1">
       <c r="A190" s="71" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B190" s="71"/>
       <c r="C190" s="71" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="D190" s="72">
         <v>462066.08</v>
@@ -27836,11 +28018,11 @@
     </row>
     <row r="191" spans="1:7" ht="12.95" customHeight="1">
       <c r="A191" s="71" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B191" s="71"/>
       <c r="C191" s="71" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D191" s="72">
         <v>450000</v>
@@ -27857,11 +28039,11 @@
     </row>
     <row r="192" spans="1:7" ht="12.95" customHeight="1">
       <c r="A192" s="71" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B192" s="71"/>
       <c r="C192" s="71" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D192" s="72">
         <v>447744.36</v>
@@ -27878,11 +28060,11 @@
     </row>
     <row r="193" spans="1:7" ht="12.95" customHeight="1">
       <c r="A193" s="71" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B193" s="71"/>
       <c r="C193" s="71" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D193" s="72">
         <v>450000</v>
@@ -27899,11 +28081,11 @@
     </row>
     <row r="194" spans="1:7" ht="12.95" customHeight="1">
       <c r="A194" s="71" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B194" s="71"/>
       <c r="C194" s="71" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D194" s="72">
         <v>513084.57</v>
@@ -27920,11 +28102,11 @@
     </row>
     <row r="195" spans="1:7" ht="12.95" customHeight="1">
       <c r="A195" s="71" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B195" s="71"/>
       <c r="C195" s="71" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D195" s="72">
         <v>425279.7</v>
@@ -27945,7 +28127,7 @@
       </c>
       <c r="B196" s="71"/>
       <c r="C196" s="71" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D196" s="72">
         <v>435526.14</v>
@@ -27962,11 +28144,11 @@
     </row>
     <row r="197" spans="1:7" ht="12.95" customHeight="1">
       <c r="A197" s="71" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B197" s="71"/>
       <c r="C197" s="71" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D197" s="72">
         <v>413000</v>
@@ -27983,11 +28165,11 @@
     </row>
     <row r="198" spans="1:7" ht="12.95" customHeight="1">
       <c r="A198" s="71" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B198" s="71"/>
       <c r="C198" s="71" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D198" s="72">
         <v>421950.67</v>
@@ -28004,11 +28186,11 @@
     </row>
     <row r="199" spans="1:7" ht="12.95" customHeight="1">
       <c r="A199" s="71" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B199" s="71"/>
       <c r="C199" s="71" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D199" s="72">
         <v>416562.13</v>
@@ -28025,11 +28207,11 @@
     </row>
     <row r="200" spans="1:7" ht="12.95" customHeight="1">
       <c r="A200" s="71" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B200" s="71"/>
       <c r="C200" s="71" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D200" s="72">
         <v>389279.19</v>
@@ -28046,11 +28228,11 @@
     </row>
     <row r="201" spans="1:7" ht="12.95" customHeight="1">
       <c r="A201" s="71" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B201" s="71"/>
       <c r="C201" s="71" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D201" s="72">
         <v>382407.42</v>
@@ -28067,11 +28249,11 @@
     </row>
     <row r="202" spans="1:7" ht="12.95" customHeight="1">
       <c r="A202" s="71" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B202" s="71"/>
       <c r="C202" s="71" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D202" s="72">
         <v>375000</v>
@@ -28088,11 +28270,11 @@
     </row>
     <row r="203" spans="1:7" ht="12.95" customHeight="1">
       <c r="A203" s="71" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B203" s="71"/>
       <c r="C203" s="71" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D203" s="72">
         <v>365993.98</v>
@@ -28109,11 +28291,11 @@
     </row>
     <row r="204" spans="1:7" ht="12.95" customHeight="1">
       <c r="A204" s="71" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B204" s="71"/>
       <c r="C204" s="71" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D204" s="72">
         <v>350000</v>
@@ -28134,7 +28316,7 @@
       </c>
       <c r="B205" s="71"/>
       <c r="C205" s="71" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D205" s="72">
         <v>341118.36</v>
@@ -28151,11 +28333,11 @@
     </row>
     <row r="206" spans="1:7" ht="12.95" customHeight="1">
       <c r="A206" s="71" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B206" s="71"/>
       <c r="C206" s="71" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D206" s="72">
         <v>342058.65</v>
@@ -28172,11 +28354,11 @@
     </row>
     <row r="207" spans="1:7" ht="12.95" customHeight="1">
       <c r="A207" s="71" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B207" s="71"/>
       <c r="C207" s="71" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D207" s="72">
         <v>335000</v>
@@ -28193,11 +28375,11 @@
     </row>
     <row r="208" spans="1:7" ht="12.95" customHeight="1">
       <c r="A208" s="71" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B208" s="71"/>
       <c r="C208" s="71" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D208" s="72">
         <v>329104.48</v>
@@ -28214,11 +28396,11 @@
     </row>
     <row r="209" spans="1:7" ht="12.95" customHeight="1">
       <c r="A209" s="71" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B209" s="71"/>
       <c r="C209" s="71" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D209" s="72">
         <v>316798.59999999998</v>
@@ -28235,11 +28417,11 @@
     </row>
     <row r="210" spans="1:7" ht="12.95" customHeight="1">
       <c r="A210" s="71" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B210" s="71"/>
       <c r="C210" s="71" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="D210" s="72">
         <v>317079.59000000003</v>
@@ -28256,11 +28438,11 @@
     </row>
     <row r="211" spans="1:7" ht="12.95" customHeight="1">
       <c r="A211" s="71" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B211" s="71"/>
       <c r="C211" s="71" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D211" s="72">
         <v>297000</v>
@@ -28277,11 +28459,11 @@
     </row>
     <row r="212" spans="1:7" ht="12.95" customHeight="1">
       <c r="A212" s="71" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B212" s="71"/>
       <c r="C212" s="71" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D212" s="72">
         <v>298500</v>
@@ -28298,11 +28480,11 @@
     </row>
     <row r="213" spans="1:7" ht="12.95" customHeight="1">
       <c r="A213" s="71" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B213" s="71"/>
       <c r="C213" s="71" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D213" s="72">
         <v>300000</v>
@@ -28319,11 +28501,11 @@
     </row>
     <row r="214" spans="1:7" ht="12.95" customHeight="1">
       <c r="A214" s="71" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B214" s="71"/>
       <c r="C214" s="71" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D214" s="72">
         <v>290969.90000000002</v>
@@ -28340,11 +28522,11 @@
     </row>
     <row r="215" spans="1:7" ht="12.95" customHeight="1">
       <c r="A215" s="71" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B215" s="71"/>
       <c r="C215" s="71" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D215" s="72">
         <v>253698.8</v>
@@ -28361,11 +28543,11 @@
     </row>
     <row r="216" spans="1:7" ht="12.95" customHeight="1">
       <c r="A216" s="71" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B216" s="71"/>
       <c r="C216" s="71" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D216" s="72">
         <v>248730.96</v>
@@ -28382,11 +28564,11 @@
     </row>
     <row r="217" spans="1:7" ht="12.95" customHeight="1">
       <c r="A217" s="71" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B217" s="71"/>
       <c r="C217" s="71" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D217" s="72">
         <v>241785</v>
@@ -28407,7 +28589,7 @@
       </c>
       <c r="B218" s="71"/>
       <c r="C218" s="71" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D218" s="72">
         <v>236862.51</v>
@@ -28424,11 +28606,11 @@
     </row>
     <row r="219" spans="1:7" ht="12.95" customHeight="1">
       <c r="A219" s="71" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B219" s="71"/>
       <c r="C219" s="71" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D219" s="72">
         <v>233000</v>
@@ -28449,7 +28631,7 @@
       </c>
       <c r="B220" s="71"/>
       <c r="C220" s="71" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D220" s="72">
         <v>226908.42</v>
@@ -28466,11 +28648,11 @@
     </row>
     <row r="221" spans="1:7" ht="12.95" customHeight="1">
       <c r="A221" s="71" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B221" s="71"/>
       <c r="C221" s="71" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D221" s="72">
         <v>212000</v>
@@ -28487,11 +28669,11 @@
     </row>
     <row r="222" spans="1:7" ht="12.95" customHeight="1">
       <c r="A222" s="71" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B222" s="71"/>
       <c r="C222" s="71" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D222" s="72">
         <v>200000</v>
@@ -28512,7 +28694,7 @@
       </c>
       <c r="B223" s="71"/>
       <c r="C223" s="71" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D223" s="72">
         <v>205234.81</v>
@@ -28529,11 +28711,11 @@
     </row>
     <row r="224" spans="1:7" ht="12.95" customHeight="1">
       <c r="A224" s="71" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B224" s="71"/>
       <c r="C224" s="71" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D224" s="72">
         <v>200491.7</v>
@@ -28550,11 +28732,11 @@
     </row>
     <row r="225" spans="1:7" ht="12.95" customHeight="1">
       <c r="A225" s="71" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B225" s="71"/>
       <c r="C225" s="71" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D225" s="72">
         <v>180000</v>
@@ -28571,11 +28753,11 @@
     </row>
     <row r="226" spans="1:7" ht="12.95" customHeight="1">
       <c r="A226" s="71" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B226" s="71"/>
       <c r="C226" s="71" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D226" s="72">
         <v>162956.0074</v>
@@ -28592,11 +28774,11 @@
     </row>
     <row r="227" spans="1:7" ht="12.95" customHeight="1">
       <c r="A227" s="71" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B227" s="71"/>
       <c r="C227" s="71" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D227" s="72">
         <v>152968.75</v>
@@ -28613,11 +28795,11 @@
     </row>
     <row r="228" spans="1:7" ht="12.95" customHeight="1">
       <c r="A228" s="71" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B228" s="71"/>
       <c r="C228" s="71" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D228" s="72">
         <v>146000</v>
@@ -28634,11 +28816,11 @@
     </row>
     <row r="229" spans="1:7" ht="12.95" customHeight="1">
       <c r="A229" s="71" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B229" s="71"/>
       <c r="C229" s="71" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D229" s="72">
         <v>142000</v>
@@ -28655,11 +28837,11 @@
     </row>
     <row r="230" spans="1:7" ht="12.95" customHeight="1">
       <c r="A230" s="71" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B230" s="71"/>
       <c r="C230" s="71" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D230" s="72">
         <v>127680</v>
@@ -28676,11 +28858,11 @@
     </row>
     <row r="231" spans="1:7" ht="12.95" customHeight="1">
       <c r="A231" s="71" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B231" s="71"/>
       <c r="C231" s="71" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D231" s="72">
         <v>124000</v>
@@ -28697,11 +28879,11 @@
     </row>
     <row r="232" spans="1:7" ht="12.95" customHeight="1">
       <c r="A232" s="71" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B232" s="71"/>
       <c r="C232" s="71" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D232" s="72">
         <v>120000</v>
@@ -28718,11 +28900,11 @@
     </row>
     <row r="233" spans="1:7" ht="12.95" customHeight="1">
       <c r="A233" s="71" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B233" s="71"/>
       <c r="C233" s="71" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D233" s="72">
         <v>120262.38</v>
@@ -28739,11 +28921,11 @@
     </row>
     <row r="234" spans="1:7" ht="12.95" customHeight="1">
       <c r="A234" s="71" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B234" s="71"/>
       <c r="C234" s="71" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D234" s="72">
         <v>117000</v>
@@ -28760,11 +28942,11 @@
     </row>
     <row r="235" spans="1:7" ht="12.95" customHeight="1">
       <c r="A235" s="71" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B235" s="71"/>
       <c r="C235" s="71" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D235" s="72">
         <v>103000</v>
@@ -28781,11 +28963,11 @@
     </row>
     <row r="236" spans="1:7" ht="12.95" customHeight="1">
       <c r="A236" s="71" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B236" s="71"/>
       <c r="C236" s="71" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D236" s="72">
         <v>100000</v>
@@ -28802,11 +28984,11 @@
     </row>
     <row r="237" spans="1:7" ht="12.95" customHeight="1">
       <c r="A237" s="71" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B237" s="71"/>
       <c r="C237" s="71" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D237" s="72">
         <v>98000</v>
@@ -28823,11 +29005,11 @@
     </row>
     <row r="238" spans="1:7" ht="12.95" customHeight="1">
       <c r="A238" s="71" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B238" s="71"/>
       <c r="C238" s="71" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D238" s="72">
         <v>92000</v>
@@ -28844,11 +29026,11 @@
     </row>
     <row r="239" spans="1:7" ht="12.95" customHeight="1">
       <c r="A239" s="71" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B239" s="71"/>
       <c r="C239" s="71" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D239" s="72">
         <v>91000</v>
@@ -28865,11 +29047,11 @@
     </row>
     <row r="240" spans="1:7" ht="12.95" customHeight="1">
       <c r="A240" s="71" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B240" s="71"/>
       <c r="C240" s="71" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D240" s="72">
         <v>82000</v>
@@ -28886,11 +29068,11 @@
     </row>
     <row r="241" spans="1:7" ht="12.95" customHeight="1">
       <c r="A241" s="71" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B241" s="71"/>
       <c r="C241" s="71" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D241" s="72">
         <v>72000</v>
@@ -28911,7 +29093,7 @@
       </c>
       <c r="B242" s="71"/>
       <c r="C242" s="71" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D242" s="72">
         <v>87981.99</v>
@@ -28928,11 +29110,11 @@
     </row>
     <row r="243" spans="1:7" ht="12.95" customHeight="1">
       <c r="A243" s="71" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B243" s="71"/>
       <c r="C243" s="71" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D243" s="72">
         <v>65000</v>
@@ -28949,11 +29131,11 @@
     </row>
     <row r="244" spans="1:7" ht="12.95" customHeight="1">
       <c r="A244" s="71" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B244" s="71"/>
       <c r="C244" s="71" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D244" s="72">
         <v>65259.55</v>
@@ -28974,7 +29156,7 @@
       </c>
       <c r="B245" s="71"/>
       <c r="C245" s="71" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D245" s="72">
         <v>64074.45</v>
@@ -28991,11 +29173,11 @@
     </row>
     <row r="246" spans="1:7" ht="12.95" customHeight="1">
       <c r="A246" s="71" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B246" s="71"/>
       <c r="C246" s="71" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D246" s="72">
         <v>62974.11</v>
@@ -29012,11 +29194,11 @@
     </row>
     <row r="247" spans="1:7" ht="12.95" customHeight="1">
       <c r="A247" s="71" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B247" s="71"/>
       <c r="C247" s="71" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D247" s="72">
         <v>60000</v>
@@ -29033,11 +29215,11 @@
     </row>
     <row r="248" spans="1:7" ht="12.95" customHeight="1">
       <c r="A248" s="71" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B248" s="71"/>
       <c r="C248" s="71" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D248" s="72">
         <v>55456.01</v>
@@ -29054,11 +29236,11 @@
     </row>
     <row r="249" spans="1:7" ht="12.95" customHeight="1">
       <c r="A249" s="71" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B249" s="71"/>
       <c r="C249" s="71" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D249" s="72">
         <v>53000</v>
@@ -29075,11 +29257,11 @@
     </row>
     <row r="250" spans="1:7" ht="12.95" customHeight="1">
       <c r="A250" s="71" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B250" s="71"/>
       <c r="C250" s="71" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D250" s="72">
         <v>53000</v>
@@ -29096,11 +29278,11 @@
     </row>
     <row r="251" spans="1:7" ht="12.95" customHeight="1">
       <c r="A251" s="71" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="B251" s="71"/>
       <c r="C251" s="71" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D251" s="72">
         <v>37740.449999999997</v>
@@ -29117,11 +29299,11 @@
     </row>
     <row r="252" spans="1:7" ht="12.95" customHeight="1">
       <c r="A252" s="71" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B252" s="71"/>
       <c r="C252" s="71" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D252" s="72">
         <v>36443.14</v>
@@ -29138,11 +29320,11 @@
     </row>
     <row r="253" spans="1:7" ht="12.95" customHeight="1">
       <c r="A253" s="71" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B253" s="71"/>
       <c r="C253" s="71" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D253" s="72">
         <v>24320</v>
@@ -29163,7 +29345,7 @@
       </c>
       <c r="B254" s="71"/>
       <c r="C254" s="71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D254" s="72">
         <v>59885.82</v>
@@ -29180,11 +29362,11 @@
     </row>
     <row r="255" spans="1:7" ht="12.95" customHeight="1">
       <c r="A255" s="71" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B255" s="71"/>
       <c r="C255" s="71" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D255" s="72">
         <v>0</v>
@@ -29201,11 +29383,11 @@
     </row>
     <row r="256" spans="1:7" ht="12.95" customHeight="1">
       <c r="A256" s="71" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B256" s="71"/>
       <c r="C256" s="71" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D256" s="72">
         <v>0</v>
@@ -29222,11 +29404,11 @@
     </row>
     <row r="257" spans="1:7" ht="12.95" customHeight="1">
       <c r="A257" s="71" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B257" s="71"/>
       <c r="C257" s="71" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D257" s="72">
         <v>0</v>
@@ -29243,11 +29425,11 @@
     </row>
     <row r="258" spans="1:7" ht="12.95" customHeight="1">
       <c r="A258" s="71" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B258" s="71"/>
       <c r="C258" s="71" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D258" s="72">
         <v>0</v>
@@ -30544,7 +30726,7 @@
         <f t="shared" si="3"/>
         <v>44135</v>
       </c>
-      <c r="B99" s="108">
+      <c r="B99" s="101">
         <v>2252.69</v>
       </c>
       <c r="C99" s="66">
@@ -30557,7 +30739,7 @@
         <f t="shared" si="3"/>
         <v>44165</v>
       </c>
-      <c r="B100" s="108">
+      <c r="B100" s="101">
         <v>2313</v>
       </c>
       <c r="C100" s="66">
@@ -30570,7 +30752,7 @@
         <f t="shared" si="3"/>
         <v>44196</v>
       </c>
-      <c r="B101" s="108">
+      <c r="B101" s="101">
         <v>2337.66</v>
       </c>
       <c r="C101" s="66">
@@ -30633,7 +30815,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
@@ -30654,7 +30836,7 @@
         <v>CFRIX</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -32069,18 +32251,19 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
       <c r="B1" t="str">
         <f>'CFR Fact Sheet Backup'!H30</f>
         <v>Floating Rate Loans</v>
@@ -32092,6 +32275,9 @@
       <c r="D1" t="str">
         <f>'CFR Fact Sheet Backup'!J30</f>
         <v>U.S. Treasury</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -32099,15 +32285,15 @@
         <f>'CFR Fact Sheet Backup'!G31</f>
         <v>Rising</v>
       </c>
-      <c r="B2" s="113">
+      <c r="B2" s="106">
         <f>'CFR Fact Sheet Backup'!H31</f>
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="106">
         <f>'CFR Fact Sheet Backup'!I31</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="D2" s="113">
+      <c r="D2" s="106">
         <f>'CFR Fact Sheet Backup'!J31</f>
         <v>-1.17E-2</v>
       </c>
@@ -32120,15 +32306,15 @@
         <f>'CFR Fact Sheet Backup'!G32</f>
         <v>Flat</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="106">
         <f>'CFR Fact Sheet Backup'!H32</f>
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="106">
         <f>'CFR Fact Sheet Backup'!I32</f>
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="D3" s="113">
+      <c r="D3" s="106">
         <f>'CFR Fact Sheet Backup'!J32</f>
         <v>3.7400000000000003E-2</v>
       </c>
@@ -32141,15 +32327,15 @@
         <f>'CFR Fact Sheet Backup'!G33</f>
         <v>Falling</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="106">
         <f>'CFR Fact Sheet Backup'!H33</f>
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="C4" s="113">
+      <c r="C4" s="106">
         <f>'CFR Fact Sheet Backup'!I33</f>
         <v>9.3700000000000006E-2</v>
       </c>
-      <c r="D4" s="113">
+      <c r="D4" s="106">
         <f>'CFR Fact Sheet Backup'!J33</f>
         <v>0.1011</v>
       </c>
@@ -32201,10 +32387,10 @@
         <v>5YR</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -32325,7 +32511,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B6" s="94">
         <f>'CFR Fact Sheet Backup'!H15</f>
@@ -32374,13 +32560,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -32437,7 +32623,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B6" s="94">
         <f>'CFR Portfolio'!D15</f>
@@ -32471,13 +32657,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B1" s="94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3">
